--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>011081</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>国投瑞银港股通混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68.73</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011081</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银港股通混合C</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.81</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007481</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏逸享健康灵活配置混合</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>34.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>005701</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>上投摩根香港精选港股通混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>007481</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>华夏逸享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5921</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.77</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.390000000000001</v>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.08</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.67</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.4</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.77</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2926,14 +2991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.390000000000001</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2942,14 +3029,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.08</v>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2958,13 +3067,889 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.67</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3832,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,17 +3844,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3863,14 +3884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.01</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3879,14 +3922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.4</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3895,14 +3960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.77</v>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3911,14 +3998,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.390000000000001</v>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3927,14 +4036,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.08</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3943,13 +4074,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.67</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>8.720000000000001</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>8.01</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>6.77</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>9.390000000000001</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>7.08</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.67</v>
       </c>
     </row>
@@ -600,6 +617,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证沪港深500医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,7 +3482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2781,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3369,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3919,7 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4393,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01093-石药集团.xlsx
+++ b/数据整理/stocks/港股/01093-石药集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>10.17</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>8.720000000000001</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8.01</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>6.77</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>9.390000000000001</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>7.08</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.67</v>
       </c>
     </row>
@@ -616,7 +633,1601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>105.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1812,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2514,7 +4125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3482,7 +5093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3994,7 +5605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4582,7 +6193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5132,7 +6743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5604,288 +7215,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全沪港深两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7884</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7775</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011081</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7775</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3241</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>